--- a/IT23288430_TestCases.xlsx
+++ b/IT23288430_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLIIT\3rd Year\2nd sem\ITPM\AS1\IT23288430\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09572063-444B-4DBE-A702-D072218FD93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672C5803-516F-4798-9F5A-E69E642F8445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="296">
   <si>
     <t>TC ID</t>
   </si>
@@ -5316,14 +5316,62 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Note: </t>
+    <t>Pos_UI_0002</t>
+  </si>
+  <si>
+    <t>Pos_UI_0003</t>
+  </si>
+  <si>
+    <t>Pos_UI_0004</t>
+  </si>
+  <si>
+    <t>Pos_UI_0005</t>
+  </si>
+  <si>
+    <t>Pos_UI_0006</t>
+  </si>
+  <si>
+    <t>Pos_UI_0007</t>
+  </si>
+  <si>
+    <t>Pos_UI_0008</t>
+  </si>
+  <si>
+    <t>Pos_UI_0009</t>
+  </si>
+  <si>
+    <t>Pos_UI_0010</t>
+  </si>
+  <si>
+    <t>Pos_UI_0011</t>
+  </si>
+  <si>
+    <t>Pos_UI_0012</t>
+  </si>
+  <si>
+    <t>Pos_UI_0013</t>
+  </si>
+  <si>
+    <t>Pos_UI_0014</t>
+  </si>
+  <si>
+    <t>Pos_UI_0015</t>
+  </si>
+  <si>
+    <t>Pos_UI_0016</t>
+  </si>
+  <si>
+    <t>Pos_UI_0017</t>
+  </si>
+  <si>
+    <t>Pos_UI_0018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5514,6 +5562,12 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5610,27 +5664,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5639,6 +5672,27 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5920,10 +5974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Y55" sqref="Y55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5941,54 +5995,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:13" s="20" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -6020,25 +6072,25 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -6049,13 +6101,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="23"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
@@ -6064,13 +6116,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="23"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
@@ -6079,38 +6131,38 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="23"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -6121,13 +6173,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="23"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
@@ -6136,13 +6188,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="23"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2" t="s">
         <v>29</v>
       </c>
@@ -6151,38 +6203,38 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="23"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -6193,13 +6245,13 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="2" t="s">
         <v>40</v>
       </c>
@@ -6208,13 +6260,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="2" t="s">
         <v>41</v>
       </c>
@@ -6223,13 +6275,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="3"/>
       <c r="I17" s="2" t="s">
         <v>45</v>
@@ -6239,10 +6291,10 @@
       <c r="A18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -6254,7 +6306,7 @@
       <c r="F18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -6266,12 +6318,12 @@
     </row>
     <row r="19" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="2" t="s">
         <v>52</v>
       </c>
@@ -6281,12 +6333,12 @@
     </row>
     <row r="20" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="2" t="s">
         <v>53</v>
       </c>
@@ -6296,19 +6348,1378 @@
     </row>
     <row r="21" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="22" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="25"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="25"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="25"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="25"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="25"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="25"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="25"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="25"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="25"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="25"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="25"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="25"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="25"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="25"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="25"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="25"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="25"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="25"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="25"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="25"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="25"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="25"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="25"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="151">
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:M2"/>
@@ -6325,23 +7736,8 @@
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
   </mergeCells>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6416,7 +7812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A3933E-C927-46FE-8BDE-D40A884569DF}">
   <dimension ref="A1:A213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -7317,7 +8713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45713967-6DC6-49B2-93C9-D103D70C4F39}">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>

--- a/IT23288430_TestCases.xlsx
+++ b/IT23288430_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLIIT\3rd Year\2nd sem\ITPM\AS1\Final As 1\IT23288430\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE6E536-5B65-4558-AB4C-00E3EF29B6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9211706F-38B5-43BF-BD71-1CE26D137897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,9 +542,6 @@
     <t>mokakdha arinnee?</t>
   </si>
   <si>
-    <t>මොකකද අරින්නේ?</t>
-  </si>
-  <si>
     <t>• Casual question form preserved.
 • Question word converted accurately.
 • Natural conversational tone maintained.</t>
@@ -910,6 +907,9 @@
 • Simple sentence
 • M (31–299 characters)
 • Real-time output update behavior</t>
+  </si>
+  <si>
+    <t>මොකක්ද අරින්නේ?</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1221,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1246,7 +1246,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96EB5E7F-898E-4B5D-A073-B9D40C4492C9}" name="Table1" displayName="Table1" ref="A1:I41" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96EB5E7F-898E-4B5D-A073-B9D40C4492C9}" name="Table1" displayName="Table1" ref="A1:I41" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I41" xr:uid="{96EB5E7F-898E-4B5D-A073-B9D40C4492C9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1321,15 +1321,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2BF2FBC4-BB96-4C84-91FD-C26DE2758641}" name="TC ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{81DDB0E1-A294-4A5B-8BAE-5496D49E79C8}" name="Test case name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{66B795CB-29FB-4500-B8CC-FEF25F829FB5}" name="Input length type" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{7944B31C-6130-4D68-B67D-EEC931651646}" name="Input" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B7FB4118-9F33-4A37-8EB3-E409A103D239}" name="Expected output" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{365EEA9B-7B43-43AB-845D-4B548E43B5DC}" name="Actual output" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{73661ADA-28BB-417A-B9E5-910702C46CD9}" name="Status" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{A2FDD703-8C6A-473A-8B9B-6CA97E06EBBF}" name="Accuracy justification / Description of issue type" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{8CF3EF26-9F38-4385-8F4A-24632CAF4246}" name="What is covered by the test" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2BF2FBC4-BB96-4C84-91FD-C26DE2758641}" name="TC ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{81DDB0E1-A294-4A5B-8BAE-5496D49E79C8}" name="Test case name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{66B795CB-29FB-4500-B8CC-FEF25F829FB5}" name="Input length type" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7944B31C-6130-4D68-B67D-EEC931651646}" name="Input" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{B7FB4118-9F33-4A37-8EB3-E409A103D239}" name="Expected output" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{365EEA9B-7B43-43AB-845D-4B548E43B5DC}" name="Actual output" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{73661ADA-28BB-417A-B9E5-910702C46CD9}" name="Status" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{A2FDD703-8C6A-473A-8B9B-6CA97E06EBBF}" name="Accuracy justification / Description of issue type" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{8CF3EF26-9F38-4385-8F4A-24632CAF4246}" name="What is covered by the test" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1622,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2349,16 +2349,16 @@
         <v>143</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>91</v>
@@ -2366,464 +2366,464 @@
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="I27" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="I28" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="I31" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="I34" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="6" t="s">
+      <c r="I39" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="G40" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
